--- a/resources/nba-awards.xlsx
+++ b/resources/nba-awards.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luan_\OneDrive\Área de Trabalho\Data Engineering\NBA Recap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luan_\OneDrive\Área de Trabalho\Data Engineering\NBA Recap\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28786304-4D78-4FA0-A8BD-24A608B5AA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62D8FD7-5E55-48C6-AC17-42C96057968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,6 +1213,14 @@
     <font>
       <u/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1581,9 +1589,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1943,7 +1953,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +2003,7 @@
         <v>2023</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="D2" t="str">
         <f>VLOOKUP(A2,'Final MVP'!A:B,2,0)</f>
@@ -2027,7 +2037,7 @@
       <c r="B3" s="1">
         <v>2022</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>314</v>
       </c>
       <c r="D3" t="str">
@@ -2794,7 +2804,7 @@
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>2000</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3724,7 +3734,7 @@
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,7 +5523,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
@@ -5653,7 +5663,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -5661,7 +5671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -5669,7 +5679,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -5677,7 +5687,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -5685,7 +5695,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -5693,7 +5703,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -5701,7 +5711,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -5709,7 +5719,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -5717,16 +5727,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -5734,7 +5743,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -5742,7 +5751,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -5750,7 +5759,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -5758,7 +5767,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -5766,7 +5775,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -5774,7 +5783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>

--- a/resources/nba-awards.xlsx
+++ b/resources/nba-awards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luan_\OneDrive\Área de Trabalho\Data Engineering\NBA Recap\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62D8FD7-5E55-48C6-AC17-42C96057968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A295E4-2B72-4A6B-A285-6F2014880E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="343">
   <si>
     <t>Season</t>
   </si>
@@ -1054,6 +1054,9 @@
   </si>
   <si>
     <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>coty</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1571,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1595,6 +1598,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1950,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,9 +1968,10 @@
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>327</v>
       </c>
@@ -1994,8 +1999,11 @@
       <c r="I1" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>336</v>
       </c>
@@ -2029,8 +2037,12 @@
         <f>VLOOKUP(A2,'6TH-MAN'!A:B,2,0)</f>
         <v>Malcolm Brogdon</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>VLOOKUP(A2,COTY!A:B,2,0)</f>
+        <v>Mike Brown</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2064,8 +2076,12 @@
         <f>VLOOKUP(A3,'6TH-MAN'!A:B,2,0)</f>
         <v>Tyler Herro</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f>VLOOKUP(A3,COTY!A:B,2,0)</f>
+        <v>Monty Williams</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2099,8 +2115,12 @@
         <f>VLOOKUP(A4,'6TH-MAN'!A:B,2,0)</f>
         <v>Jordan Clarkson</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f>VLOOKUP(A4,COTY!A:B,2,0)</f>
+        <v>Tom Thibodeau</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2134,8 +2154,12 @@
         <f>VLOOKUP(A5,'6TH-MAN'!A:B,2,0)</f>
         <v>Montrezl Harrell</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f>VLOOKUP(A5,COTY!A:B,2,0)</f>
+        <v>Nick Nurse</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2169,8 +2193,12 @@
         <f>VLOOKUP(A6,'6TH-MAN'!A:B,2,0)</f>
         <v>Lou Williams</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f>VLOOKUP(A6,COTY!A:B,2,0)</f>
+        <v>Mike Budenholzer</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2204,8 +2232,12 @@
         <f>VLOOKUP(A7,'6TH-MAN'!A:B,2,0)</f>
         <v>Lou Williams</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f>VLOOKUP(A7,COTY!A:B,2,0)</f>
+        <v>Dwane Casey</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2227,7 +2259,7 @@
         <f>VLOOKUP(A8,DPOY!A:B,2,0)</f>
         <v>Draymond Green</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="10" t="str">
         <f>VLOOKUP(A8,ROTY!A:B,2,0)</f>
         <v>Malcolm Brogdon</v>
       </c>
@@ -2239,8 +2271,12 @@
         <f>VLOOKUP(A8,'6TH-MAN'!A:B,2,0)</f>
         <v>Eric Gordon</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f>VLOOKUP(A8,COTY!A:B,2,0)</f>
+        <v>Mike D'Antoni</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2274,8 +2310,12 @@
         <f>VLOOKUP(A9,'6TH-MAN'!A:B,2,0)</f>
         <v>Jamal Crawford</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f>VLOOKUP(A9,COTY!A:B,2,0)</f>
+        <v>Steve Kerr</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2309,8 +2349,12 @@
         <f>VLOOKUP(A10,'6TH-MAN'!A:B,2,0)</f>
         <v>Lou Williams</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f>VLOOKUP(A10,COTY!A:B,2,0)</f>
+        <v>Mike Budenholzer</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -2344,8 +2388,12 @@
         <f>VLOOKUP(A11,'6TH-MAN'!A:B,2,0)</f>
         <v>Jamal Crawford</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f>VLOOKUP(A11,COTY!A:B,2,0)</f>
+        <v>Gregg Popovich</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -2379,8 +2427,12 @@
         <f>VLOOKUP(A12,'6TH-MAN'!A:B,2,0)</f>
         <v>J.R. Smith</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f>VLOOKUP(A12,COTY!A:B,2,0)</f>
+        <v>George Karl</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2414,8 +2466,12 @@
         <f>VLOOKUP(A13,'6TH-MAN'!A:B,2,0)</f>
         <v>James Harden</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f>VLOOKUP(A13,COTY!A:B,2,0)</f>
+        <v>Gregg Popovich</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2449,8 +2505,12 @@
         <f>VLOOKUP(A14,'6TH-MAN'!A:B,2,0)</f>
         <v>Lamar Odom</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f>VLOOKUP(A14,COTY!A:B,2,0)</f>
+        <v>Tom Thibodeau</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2484,8 +2544,12 @@
         <f>VLOOKUP(A15,'6TH-MAN'!A:B,2,0)</f>
         <v>Jamal Crawford</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f>VLOOKUP(A15,COTY!A:B,2,0)</f>
+        <v>Scott Brooks</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -2519,8 +2583,12 @@
         <f>VLOOKUP(A16,'6TH-MAN'!A:B,2,0)</f>
         <v>Jason Terry</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f>VLOOKUP(A16,COTY!A:B,2,0)</f>
+        <v>Mike Brown</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2554,8 +2622,12 @@
         <f>VLOOKUP(A17,'6TH-MAN'!A:B,2,0)</f>
         <v>Manu Ginóbili</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f>VLOOKUP(A17,COTY!A:B,2,0)</f>
+        <v>Byron Scott</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -2589,8 +2661,12 @@
         <f>VLOOKUP(A18,'6TH-MAN'!A:B,2,0)</f>
         <v>Leandro Barbosa</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f>VLOOKUP(A18,COTY!A:B,2,0)</f>
+        <v>Sam Mitchell</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -2624,8 +2700,12 @@
         <f>VLOOKUP(A19,'6TH-MAN'!A:B,2,0)</f>
         <v>Mike Miller</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f>VLOOKUP(A19,COTY!A:B,2,0)</f>
+        <v>Avery Johnson</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2659,8 +2739,12 @@
         <f>VLOOKUP(A20,'6TH-MAN'!A:B,2,0)</f>
         <v>Ben Gordon</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f>VLOOKUP(A20,COTY!A:B,2,0)</f>
+        <v>Mike D'Antoni</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2694,8 +2778,12 @@
         <f>VLOOKUP(A21,'6TH-MAN'!A:B,2,0)</f>
         <v>Antawn Jamison</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f>VLOOKUP(A21,COTY!A:B,2,0)</f>
+        <v>Hubie Brown</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2729,8 +2817,12 @@
         <f>VLOOKUP(A22,'6TH-MAN'!A:B,2,0)</f>
         <v>Bobby Jackson</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <f>VLOOKUP(A22,COTY!A:B,2,0)</f>
+        <v>Gregg Popovich</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2764,8 +2856,12 @@
         <f>VLOOKUP(A23,'6TH-MAN'!A:B,2,0)</f>
         <v>Corliss Williamson</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="str">
+        <f>VLOOKUP(A23,COTY!A:B,2,0)</f>
+        <v>Rick Carlisle</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2799,8 +2895,12 @@
         <f>VLOOKUP(A24,'6TH-MAN'!A:B,2,0)</f>
         <v>Aaron McKie</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="str">
+        <f>VLOOKUP(A24,COTY!A:B,2,0)</f>
+        <v>Larry Brown</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -2834,8 +2934,12 @@
         <f>VLOOKUP(A25,'6TH-MAN'!A:B,2,0)</f>
         <v>Rodney Rogers</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="str">
+        <f>VLOOKUP(A25,COTY!A:B,2,0)</f>
+        <v>Doc Rivers</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2869,8 +2973,12 @@
         <f>VLOOKUP(A26,'6TH-MAN'!A:B,2,0)</f>
         <v>Darrell Armstrong</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="str">
+        <f>VLOOKUP(A26,COTY!A:B,2,0)</f>
+        <v>Mike Dunleavy</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -2904,8 +3012,12 @@
         <f>VLOOKUP(A27,'6TH-MAN'!A:B,2,0)</f>
         <v>Danny Manning</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="str">
+        <f>VLOOKUP(A27,COTY!A:B,2,0)</f>
+        <v>Larry Bird</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -2939,8 +3051,12 @@
         <f>VLOOKUP(A28,'6TH-MAN'!A:B,2,0)</f>
         <v>John Starks</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="str">
+        <f>VLOOKUP(A28,COTY!A:B,2,0)</f>
+        <v>Pat Riley</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -2974,8 +3090,12 @@
         <f>VLOOKUP(A29,'6TH-MAN'!A:B,2,0)</f>
         <v>Toni Kukoč</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="str">
+        <f>VLOOKUP(A29,COTY!A:B,2,0)</f>
+        <v>Phil Jackson</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -3009,8 +3129,12 @@
         <f>VLOOKUP(A30,'6TH-MAN'!A:B,2,0)</f>
         <v>Anthony Mason</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="str">
+        <f>VLOOKUP(A30,COTY!A:B,2,0)</f>
+        <v>Del Harris</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -3044,8 +3168,12 @@
         <f>VLOOKUP(A31,'6TH-MAN'!A:B,2,0)</f>
         <v>Dell Curry</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="str">
+        <f>VLOOKUP(A31,COTY!A:B,2,0)</f>
+        <v>Lenny Wilkens</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -3079,8 +3207,12 @@
         <f>VLOOKUP(A32,'6TH-MAN'!A:B,2,0)</f>
         <v>Clifford Robinson</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="str">
+        <f>VLOOKUP(A32,COTY!A:B,2,0)</f>
+        <v>Pat Riley</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -3114,8 +3246,12 @@
         <f>VLOOKUP(A33,'6TH-MAN'!A:B,2,0)</f>
         <v>Detlef Schrempf</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <f>VLOOKUP(A33,COTY!A:B,2,0)</f>
+        <v>Don Nelson</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
@@ -3149,8 +3285,12 @@
         <f>VLOOKUP(A34,'6TH-MAN'!A:B,2,0)</f>
         <v>Detlef Schrempf</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="str">
+        <f>VLOOKUP(A34,COTY!A:B,2,0)</f>
+        <v>Don Chaney</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -3184,8 +3324,12 @@
         <f>VLOOKUP(A35,'6TH-MAN'!A:B,2,0)</f>
         <v>Ricky Pierce</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="str">
+        <f>VLOOKUP(A35,COTY!A:B,2,0)</f>
+        <v>Pat Riley</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -3219,8 +3363,12 @@
         <f>VLOOKUP(A36,'6TH-MAN'!A:B,2,0)</f>
         <v>Eddie Johnson</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="str">
+        <f>VLOOKUP(A36,COTY!A:B,2,0)</f>
+        <v>Cotton Fitzsimmons</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -3254,8 +3402,12 @@
         <f>VLOOKUP(A37,'6TH-MAN'!A:B,2,0)</f>
         <v>Roy Tarpley</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="str">
+        <f>VLOOKUP(A37,COTY!A:B,2,0)</f>
+        <v>Doug Moe</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -3289,8 +3441,12 @@
         <f>VLOOKUP(A38,'6TH-MAN'!A:B,2,0)</f>
         <v>Ricky Pierce</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="str">
+        <f>VLOOKUP(A38,COTY!A:B,2,0)</f>
+        <v>Mike Schuler</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -3324,8 +3480,12 @@
         <f>VLOOKUP(A39,'6TH-MAN'!A:B,2,0)</f>
         <v>Bill Walton</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="str">
+        <f>VLOOKUP(A39,COTY!A:B,2,0)</f>
+        <v>Mike Fratello</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -3359,8 +3519,12 @@
         <f>VLOOKUP(A40,'6TH-MAN'!A:B,2,0)</f>
         <v>Kevin McHale</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="str">
+        <f>VLOOKUP(A40,COTY!A:B,2,0)</f>
+        <v>Don Nelson</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -3394,8 +3558,12 @@
         <f>VLOOKUP(A41,'6TH-MAN'!A:B,2,0)</f>
         <v>Kevin McHale</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="str">
+        <f>VLOOKUP(A41,COTY!A:B,2,0)</f>
+        <v>Frank Layden</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,8 +3597,12 @@
         <f>VLOOKUP(A42,'6TH-MAN'!A:B,2,0)</f>
         <v>Bobby Jones</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="str">
+        <f>VLOOKUP(A42,COTY!A:B,2,0)</f>
+        <v>Don Nelson</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -3464,8 +3636,12 @@
         <f>VLOOKUP(A43,'6TH-MAN'!A:B,2,0)</f>
         <v>Award didn't exist</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="str">
+        <f>VLOOKUP(A43,COTY!A:B,2,0)</f>
+        <v>Gene Shue</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -3499,8 +3675,12 @@
         <f>VLOOKUP(A44,'6TH-MAN'!A:B,2,0)</f>
         <v>Award didn't exist</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="str">
+        <f>VLOOKUP(A44,COTY!A:B,2,0)</f>
+        <v>Jack McKinney</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -3534,18 +3714,22 @@
         <f>VLOOKUP(A45,'6TH-MAN'!A:B,2,0)</f>
         <v>Award didn't exist</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="str">
+        <f>VLOOKUP(A45,COTY!A:B,2,0)</f>
+        <v>Bill Fitch</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
